--- a/游戏列表.xlsx
+++ b/游戏列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheoXu\Downloads\GameList-main\GameList-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91006E01-DC7F-450A-AAB0-AFBCA05A736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928205AA-92B2-4208-B596-BB6F2A8C752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{342111CC-C80D-4886-B273-35B1A24B4DA2}"/>
+    <workbookView xWindow="10050" yWindow="4695" windowWidth="38700" windowHeight="15435" xr2:uid="{342111CC-C80D-4886-B273-35B1A24B4DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>游戏类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主玩太刀，通关后没怎么刷，等DLC中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XX和X出的时候没时间刷，后来世界出来了就玩世界了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,22 @@
   </si>
   <si>
     <t>如DOOM、鬼泣等优秀3A都有玩过，太吾绘卷、鬼谷八荒、部落与弯刀等优秀的独立游戏都有玩过（有的是等正式版，有的是暂时没时间玩）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹六号：围攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主玩太刀，通关后没怎么刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,11 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,38 +748,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F8CC7-EFBE-463F-BA91-C03AE4FDA219}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
     <col min="5" max="5" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -784,7 +796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -792,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -806,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -817,7 +829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -828,7 +840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -842,7 +854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -853,310 +865,329 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="1">
         <v>200</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
       <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>27</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A30:XFD30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏列表.xlsx
+++ b/游戏列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheoXu\Downloads\GameList-main\GameList-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GameList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928205AA-92B2-4208-B596-BB6F2A8C752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B34A3-D889-4888-9718-4CDC5F8FBC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="4695" windowWidth="38700" windowHeight="15435" xr2:uid="{342111CC-C80D-4886-B273-35B1A24B4DA2}"/>
+    <workbookView xWindow="13020" yWindow="240" windowWidth="25560" windowHeight="20520" xr2:uid="{342111CC-C80D-4886-B273-35B1A24B4DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>游戏类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掌机单机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金太阳1，2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一周目天使道途支线全清通关，目前二周目诡术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高精暗精通关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>端游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炉石传说</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +351,26 @@
   </si>
   <si>
     <t>主玩太刀，通关后没怎么刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周目天使道途支线全清通关，二周目诡术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +396,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -396,12 +404,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,21 +450,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F8CC7-EFBE-463F-BA91-C03AE4FDA219}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,432 +815,757 @@
     <col min="5" max="5" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>500</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7">
+        <v>600</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="7">
+        <v>150</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>500</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1">
-        <v>600</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A47:XFD47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
